--- a/PageObjectModel/data/PlantationCreateTicketForDemo.xlsx
+++ b/PageObjectModel/data/PlantationCreateTicketForDemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -80,57 +80,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>Mohan Das</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>AreaB</t>
-  </si>
-  <si>
-    <t>Block C</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Goh Kheng Wee</t>
-  </si>
-  <si>
-    <t>AreaC</t>
-  </si>
-  <si>
-    <t>Block D</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Kumaresan Subramani</t>
-  </si>
-  <si>
-    <t>AreaD</t>
-  </si>
-  <si>
-    <t>Block E</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
 </sst>
 </file>
@@ -143,7 +92,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,35 +115,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +133,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -217,39 +171,59 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,39 +244,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,31 +266,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,150 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +488,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -564,31 +542,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,32 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -647,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,134 +608,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,9 +743,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,16 +761,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,21 +1083,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.44444444444444" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.66666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.11111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.55555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.44444444444444" style="1" customWidth="1"/>
     <col min="9" max="10" width="6.77777777777778" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.55555555555556" style="1" customWidth="1"/>
@@ -1174,186 +1105,78 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sime.lee@gmas.com"/>
-    <hyperlink ref="A3" r:id="rId1" display="sime.lee@gmas.com"/>
-    <hyperlink ref="A4" r:id="rId1" display="sime.lee@gmas.com"/>
-    <hyperlink ref="A5" r:id="rId1" display="sime.lee@gmas.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/PageObjectModel/data/PlantationCreateTicketForDemo.xlsx
+++ b/PageObjectModel/data/PlantationCreateTicketForDemo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>UserName</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Appala Naidu Marie</t>
   </si>
   <si>
-    <t>52</t>
+    <t>4</t>
   </si>
   <si>
     <t>AreaA</t>
@@ -73,13 +73,7 @@
     <t>P1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
@@ -87,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -115,11 +109,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,97 +139,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -237,8 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +210,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,12 +260,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -284,31 +302,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,13 +374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +392,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,85 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +538,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -547,17 +556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,162 +579,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,7 +1080,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1168,10 +1162,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
